--- a/Structured Data.xlsx
+++ b/Structured Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e9cbe8aa408df8e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6AD1BE90-9510-486B-9E31-51C63BFC85CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90A2F4D-9FA6-4C8B-BA6D-40DE7DF0E4EC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{6AD1BE90-9510-486B-9E31-51C63BFC85CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2FF1013-3163-4E7C-8B92-EEF1CBD5DFC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EBB40164-2812-4159-B5E7-A15B40327CCB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6306" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6557" uniqueCount="911">
   <si>
     <t>Aleena K</t>
   </si>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005CB3C7-1317-4A1F-93A8-9BBC27F99937}">
   <dimension ref="A1:AH453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView tabSelected="1" topLeftCell="B361" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H374" sqref="H374:H376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11511,6 +11511,9 @@
       <c r="G126" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H126" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I126" s="1" t="s">
         <v>43</v>
       </c>
@@ -11573,6 +11576,9 @@
       <c r="G127" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H127" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I127" s="1" t="s">
         <v>43</v>
       </c>
@@ -11635,6 +11641,9 @@
       <c r="G128" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H128" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I128" s="1" t="s">
         <v>6</v>
       </c>
@@ -11697,6 +11706,9 @@
       <c r="G129" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H129" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I129" s="1" t="s">
         <v>81</v>
       </c>
@@ -11759,6 +11771,9 @@
       <c r="G130" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H130" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I130" s="1" t="s">
         <v>43</v>
       </c>
@@ -11821,6 +11836,9 @@
       <c r="G131" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H131" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I131" s="1" t="s">
         <v>43</v>
       </c>
@@ -11883,6 +11901,9 @@
       <c r="G132" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H132" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I132" s="1" t="s">
         <v>81</v>
       </c>
@@ -11945,6 +11966,9 @@
       <c r="G133" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H133" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I133" s="1" t="s">
         <v>81</v>
       </c>
@@ -12007,6 +12031,9 @@
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H134" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>6</v>
       </c>
@@ -12069,6 +12096,9 @@
       <c r="G135" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H135" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>6</v>
       </c>
@@ -12131,6 +12161,9 @@
       <c r="G136" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H136" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>43</v>
       </c>
@@ -12193,6 +12226,9 @@
       <c r="G137" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H137" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>6</v>
       </c>
@@ -12255,6 +12291,9 @@
       <c r="G138" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H138" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>81</v>
       </c>
@@ -12317,6 +12356,9 @@
       <c r="G139" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H139" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I139" s="1" t="s">
         <v>43</v>
       </c>
@@ -12379,6 +12421,9 @@
       <c r="G140" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H140" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I140" s="1" t="s">
         <v>6</v>
       </c>
@@ -12441,6 +12486,9 @@
       <c r="G141" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H141" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>43</v>
       </c>
@@ -12503,6 +12551,9 @@
       <c r="G142" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H142" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>81</v>
       </c>
@@ -12565,6 +12616,9 @@
       <c r="G143" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H143" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>43</v>
       </c>
@@ -12627,6 +12681,9 @@
       <c r="G144" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H144" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>6</v>
       </c>
@@ -12689,6 +12746,9 @@
       <c r="G145" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H145" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I145" s="1" t="s">
         <v>6</v>
       </c>
@@ -12751,6 +12811,9 @@
       <c r="G146" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H146" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I146" s="1" t="s">
         <v>6</v>
       </c>
@@ -12813,6 +12876,9 @@
       <c r="G147" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H147" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I147" s="1" t="s">
         <v>43</v>
       </c>
@@ -12875,6 +12941,9 @@
       <c r="G148" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H148" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I148" s="1" t="s">
         <v>43</v>
       </c>
@@ -12937,6 +13006,9 @@
       <c r="G149" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H149" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I149" s="1" t="s">
         <v>6</v>
       </c>
@@ -12999,6 +13071,9 @@
       <c r="G150" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H150" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I150" s="1" t="s">
         <v>43</v>
       </c>
@@ -13061,6 +13136,9 @@
       <c r="G151" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H151" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I151" s="1" t="s">
         <v>6</v>
       </c>
@@ -13123,6 +13201,9 @@
       <c r="G152" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H152" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>81</v>
       </c>
@@ -13185,6 +13266,9 @@
       <c r="G153" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H153" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I153" s="1" t="s">
         <v>43</v>
       </c>
@@ -13247,6 +13331,9 @@
       <c r="G154" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H154" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>43</v>
       </c>
@@ -13309,6 +13396,9 @@
       <c r="G155" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="H155" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I155" s="1" t="s">
         <v>43</v>
       </c>
@@ -13371,6 +13461,9 @@
       <c r="G156" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H156" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I156" s="1" t="s">
         <v>6</v>
       </c>
@@ -13433,6 +13526,9 @@
       <c r="G157" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H157" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I157" s="1" t="s">
         <v>81</v>
       </c>
@@ -13495,6 +13591,9 @@
       <c r="G158" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H158" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I158" s="1" t="s">
         <v>43</v>
       </c>
@@ -13557,6 +13656,9 @@
       <c r="G159" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H159" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I159" s="1" t="s">
         <v>43</v>
       </c>
@@ -13619,6 +13721,9 @@
       <c r="G160" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H160" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I160" s="1" t="s">
         <v>81</v>
       </c>
@@ -13681,6 +13786,9 @@
       <c r="G161" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H161" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I161" s="1" t="s">
         <v>81</v>
       </c>
@@ -13743,6 +13851,9 @@
       <c r="G162" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H162" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>6</v>
       </c>
@@ -13805,6 +13916,9 @@
       <c r="G163" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H163" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>6</v>
       </c>
@@ -13867,6 +13981,9 @@
       <c r="G164" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H164" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>43</v>
       </c>
@@ -13929,6 +14046,9 @@
       <c r="G165" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H165" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>6</v>
       </c>
@@ -13991,6 +14111,9 @@
       <c r="G166" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H166" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>81</v>
       </c>
@@ -14053,6 +14176,9 @@
       <c r="G167" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H167" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>43</v>
       </c>
@@ -14115,6 +14241,9 @@
       <c r="G168" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H168" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I168" s="1" t="s">
         <v>6</v>
       </c>
@@ -14177,6 +14306,9 @@
       <c r="G169" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H169" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I169" s="1" t="s">
         <v>43</v>
       </c>
@@ -14239,6 +14371,9 @@
       <c r="G170" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H170" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I170" s="1" t="s">
         <v>81</v>
       </c>
@@ -14301,6 +14436,9 @@
       <c r="G171" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H171" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I171" s="1" t="s">
         <v>43</v>
       </c>
@@ -14363,6 +14501,9 @@
       <c r="G172" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H172" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I172" s="1" t="s">
         <v>81</v>
       </c>
@@ -14425,6 +14566,9 @@
       <c r="G173" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H173" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I173" s="1" t="s">
         <v>43</v>
       </c>
@@ -14487,6 +14631,9 @@
       <c r="G174" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H174" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I174" s="1" t="s">
         <v>81</v>
       </c>
@@ -14549,6 +14696,9 @@
       <c r="G175" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H175" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I175" s="1" t="s">
         <v>6</v>
       </c>
@@ -14611,6 +14761,9 @@
       <c r="G176" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H176" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I176" s="1" t="s">
         <v>6</v>
       </c>
@@ -14673,6 +14826,9 @@
       <c r="G177" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H177" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I177" s="1" t="s">
         <v>6</v>
       </c>
@@ -14735,6 +14891,9 @@
       <c r="G178" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H178" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I178" s="1" t="s">
         <v>43</v>
       </c>
@@ -14797,6 +14956,9 @@
       <c r="G179" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H179" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I179" s="1" t="s">
         <v>43</v>
       </c>
@@ -14859,6 +15021,9 @@
       <c r="G180" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H180" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I180" s="1" t="s">
         <v>6</v>
       </c>
@@ -14921,6 +15086,9 @@
       <c r="G181" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H181" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I181" s="1" t="s">
         <v>6</v>
       </c>
@@ -14983,6 +15151,9 @@
       <c r="G182" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H182" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I182" s="1" t="s">
         <v>6</v>
       </c>
@@ -15045,6 +15216,9 @@
       <c r="G183" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H183" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I183" s="1" t="s">
         <v>6</v>
       </c>
@@ -15107,6 +15281,9 @@
       <c r="G184" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H184" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I184" s="1" t="s">
         <v>6</v>
       </c>
@@ -15169,6 +15346,9 @@
       <c r="G185" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H185" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I185" s="1" t="s">
         <v>43</v>
       </c>
@@ -15231,6 +15411,9 @@
       <c r="G186" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H186" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I186" s="1" t="s">
         <v>43</v>
       </c>
@@ -15293,6 +15476,9 @@
       <c r="G187" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H187" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I187" s="1" t="s">
         <v>6</v>
       </c>
@@ -15355,6 +15541,9 @@
       <c r="G188" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H188" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I188" s="1" t="s">
         <v>43</v>
       </c>
@@ -15417,6 +15606,9 @@
       <c r="G189" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H189" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I189" s="1" t="s">
         <v>6</v>
       </c>
@@ -15479,6 +15671,9 @@
       <c r="G190" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H190" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I190" s="1" t="s">
         <v>81</v>
       </c>
@@ -15541,6 +15736,9 @@
       <c r="G191" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H191" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I191" s="1" t="s">
         <v>43</v>
       </c>
@@ -15603,6 +15801,9 @@
       <c r="G192" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H192" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I192" s="1" t="s">
         <v>43</v>
       </c>
@@ -15665,6 +15866,9 @@
       <c r="G193" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H193" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I193" s="1" t="s">
         <v>43</v>
       </c>
@@ -15727,6 +15931,9 @@
       <c r="G194" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H194" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I194" s="1" t="s">
         <v>6</v>
       </c>
@@ -15789,6 +15996,9 @@
       <c r="G195" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H195" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I195" s="1" t="s">
         <v>81</v>
       </c>
@@ -15851,6 +16061,9 @@
       <c r="G196" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H196" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I196" s="1" t="s">
         <v>43</v>
       </c>
@@ -15913,6 +16126,9 @@
       <c r="G197" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H197" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I197" s="1" t="s">
         <v>43</v>
       </c>
@@ -15975,6 +16191,9 @@
       <c r="G198" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H198" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I198" s="1" t="s">
         <v>81</v>
       </c>
@@ -16037,6 +16256,9 @@
       <c r="G199" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="H199" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I199" s="1" t="s">
         <v>81</v>
       </c>
@@ -16099,6 +16321,9 @@
       <c r="G200" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H200" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I200" s="1" t="s">
         <v>6</v>
       </c>
@@ -16161,6 +16386,9 @@
       <c r="G201" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H201" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I201" s="1" t="s">
         <v>6</v>
       </c>
@@ -16223,6 +16451,9 @@
       <c r="G202" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H202" t="s">
+        <v>282</v>
+      </c>
       <c r="I202" s="1" t="s">
         <v>43</v>
       </c>
@@ -16285,6 +16516,9 @@
       <c r="G203" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H203" t="s">
+        <v>283</v>
+      </c>
       <c r="I203" s="1" t="s">
         <v>6</v>
       </c>
@@ -16347,6 +16581,9 @@
       <c r="G204" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H204" t="s">
+        <v>285</v>
+      </c>
       <c r="I204" s="1" t="s">
         <v>81</v>
       </c>
@@ -16409,6 +16646,9 @@
       <c r="G205" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H205" t="s">
+        <v>255</v>
+      </c>
       <c r="I205" s="1" t="s">
         <v>43</v>
       </c>
@@ -16471,6 +16711,9 @@
       <c r="G206" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H206" t="s">
+        <v>275</v>
+      </c>
       <c r="I206" s="1" t="s">
         <v>6</v>
       </c>
@@ -16533,6 +16776,9 @@
       <c r="G207" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H207" t="s">
+        <v>289</v>
+      </c>
       <c r="I207" s="1" t="s">
         <v>43</v>
       </c>
@@ -16595,6 +16841,9 @@
       <c r="G208" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H208" t="s">
+        <v>135</v>
+      </c>
       <c r="I208" s="1" t="s">
         <v>81</v>
       </c>
@@ -16657,6 +16906,9 @@
       <c r="G209" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H209" t="s">
+        <v>290</v>
+      </c>
       <c r="I209" s="1" t="s">
         <v>43</v>
       </c>
@@ -16719,6 +16971,9 @@
       <c r="G210" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H210" t="s">
+        <v>292</v>
+      </c>
       <c r="I210" s="1" t="s">
         <v>81</v>
       </c>
@@ -16781,6 +17036,9 @@
       <c r="G211" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H211" t="s">
+        <v>22</v>
+      </c>
       <c r="I211" s="1" t="s">
         <v>43</v>
       </c>
@@ -16843,6 +17101,9 @@
       <c r="G212" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H212" t="s">
+        <v>294</v>
+      </c>
       <c r="I212" s="1" t="s">
         <v>81</v>
       </c>
@@ -16905,6 +17166,9 @@
       <c r="G213" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H213" t="s">
+        <v>135</v>
+      </c>
       <c r="I213" s="1" t="s">
         <v>6</v>
       </c>
@@ -16967,6 +17231,9 @@
       <c r="G214" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H214" t="s">
+        <v>135</v>
+      </c>
       <c r="I214" s="1" t="s">
         <v>6</v>
       </c>
@@ -17029,6 +17296,9 @@
       <c r="G215" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H215" t="s">
+        <v>298</v>
+      </c>
       <c r="I215" s="1" t="s">
         <v>6</v>
       </c>
@@ -17091,6 +17361,9 @@
       <c r="G216" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H216" t="s">
+        <v>281</v>
+      </c>
       <c r="I216" s="1" t="s">
         <v>43</v>
       </c>
@@ -17153,6 +17426,9 @@
       <c r="G217" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H217" t="s">
+        <v>135</v>
+      </c>
       <c r="I217" s="1" t="s">
         <v>43</v>
       </c>
@@ -17215,6 +17491,9 @@
       <c r="G218" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H218" t="s">
+        <v>301</v>
+      </c>
       <c r="I218" s="1" t="s">
         <v>6</v>
       </c>
@@ -17277,6 +17556,9 @@
       <c r="G219" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H219" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I219" s="1" t="s">
         <v>6</v>
       </c>
@@ -17339,6 +17621,9 @@
       <c r="G220" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H220" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I220" t="s">
         <v>263</v>
       </c>
@@ -17401,6 +17686,9 @@
       <c r="G221" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H221" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I221" t="s">
         <v>269</v>
       </c>
@@ -17463,6 +17751,9 @@
       <c r="G222" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H222" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I222" t="s">
         <v>269</v>
       </c>
@@ -17525,6 +17816,9 @@
       <c r="G223" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H223" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I223" t="s">
         <v>263</v>
       </c>
@@ -17587,6 +17881,9 @@
       <c r="G224" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H224" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I224" t="s">
         <v>269</v>
       </c>
@@ -17649,6 +17946,9 @@
       <c r="G225" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H225" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I225" t="s">
         <v>263</v>
       </c>
@@ -17711,6 +18011,9 @@
       <c r="G226" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H226" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I226" t="s">
         <v>263</v>
       </c>
@@ -17773,6 +18076,9 @@
       <c r="G227" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H227" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I227" t="s">
         <v>269</v>
       </c>
@@ -17835,6 +18141,9 @@
       <c r="G228" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H228" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I228" t="s">
         <v>263</v>
       </c>
@@ -17897,6 +18206,9 @@
       <c r="G229" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H229" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I229" t="s">
         <v>269</v>
       </c>
@@ -17959,6 +18271,9 @@
       <c r="G230" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H230" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I230" t="s">
         <v>269</v>
       </c>
@@ -18021,6 +18336,9 @@
       <c r="G231" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H231" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I231" t="s">
         <v>269</v>
       </c>
@@ -18083,6 +18401,9 @@
       <c r="G232" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H232" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I232" t="s">
         <v>263</v>
       </c>
@@ -18145,6 +18466,9 @@
       <c r="G233" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H233" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I233" t="s">
         <v>263</v>
       </c>
@@ -18207,6 +18531,9 @@
       <c r="G234" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H234" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I234" t="s">
         <v>263</v>
       </c>
@@ -18269,6 +18596,9 @@
       <c r="G235" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H235" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I235" t="s">
         <v>263</v>
       </c>
@@ -18328,6 +18658,9 @@
       <c r="G236" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H236" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I236" t="s">
         <v>269</v>
       </c>
@@ -18387,6 +18720,9 @@
       <c r="G237" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="H237" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I237" s="1" t="s">
         <v>43</v>
       </c>
@@ -18446,6 +18782,9 @@
       <c r="G238" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H238" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I238" s="1" t="s">
         <v>43</v>
       </c>
@@ -18505,6 +18844,9 @@
       <c r="G239" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H239" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I239" s="1" t="s">
         <v>6</v>
       </c>
@@ -18564,6 +18906,9 @@
       <c r="G240" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H240" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I240" s="1" t="s">
         <v>6</v>
       </c>
@@ -18623,6 +18968,9 @@
       <c r="G241" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H241" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I241" t="s">
         <v>263</v>
       </c>
@@ -18682,6 +19030,9 @@
       <c r="G242" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H242" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I242" t="s">
         <v>269</v>
       </c>
@@ -18738,6 +19089,9 @@
       <c r="G243" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H243" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I243" t="s">
         <v>269</v>
       </c>
@@ -18794,6 +19148,9 @@
       <c r="G244" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H244" t="s">
+        <v>282</v>
+      </c>
       <c r="I244" t="s">
         <v>263</v>
       </c>
@@ -18856,6 +19213,9 @@
       <c r="G245" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H245" t="s">
+        <v>283</v>
+      </c>
       <c r="I245" t="s">
         <v>269</v>
       </c>
@@ -18918,6 +19278,9 @@
       <c r="G246" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H246" t="s">
+        <v>285</v>
+      </c>
       <c r="I246" t="s">
         <v>263</v>
       </c>
@@ -18980,6 +19343,9 @@
       <c r="G247" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H247" t="s">
+        <v>255</v>
+      </c>
       <c r="I247" t="s">
         <v>263</v>
       </c>
@@ -19042,6 +19408,9 @@
       <c r="G248" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H248" t="s">
+        <v>275</v>
+      </c>
       <c r="I248" t="s">
         <v>269</v>
       </c>
@@ -19104,6 +19473,9 @@
       <c r="G249" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H249" t="s">
+        <v>289</v>
+      </c>
       <c r="I249" t="s">
         <v>263</v>
       </c>
@@ -19166,6 +19538,9 @@
       <c r="G250" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H250" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I250" t="s">
         <v>269</v>
       </c>
@@ -19228,6 +19603,9 @@
       <c r="G251" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H251" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I251" t="s">
         <v>269</v>
       </c>
@@ -19290,6 +19668,9 @@
       <c r="G252" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H252" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I252" t="s">
         <v>269</v>
       </c>
@@ -19352,6 +19733,9 @@
       <c r="G253" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H253" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I253" t="s">
         <v>263</v>
       </c>
@@ -19414,6 +19798,9 @@
       <c r="G254" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H254" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I254" t="s">
         <v>263</v>
       </c>
@@ -19476,6 +19863,9 @@
       <c r="G255" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H255" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I255" t="s">
         <v>263</v>
       </c>
@@ -19538,6 +19928,9 @@
       <c r="G256" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H256" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I256" s="1" t="s">
         <v>6</v>
       </c>
@@ -19600,6 +19993,9 @@
       <c r="G257" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H257" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I257" s="1" t="s">
         <v>81</v>
       </c>
@@ -19662,6 +20058,9 @@
       <c r="G258" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H258" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I258" s="1" t="s">
         <v>43</v>
       </c>
@@ -19724,6 +20123,9 @@
       <c r="G259" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H259" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I259" s="1" t="s">
         <v>43</v>
       </c>
@@ -19786,6 +20188,9 @@
       <c r="G260" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H260" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I260" s="1" t="s">
         <v>81</v>
       </c>
@@ -19848,6 +20253,9 @@
       <c r="G261" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H261" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I261" s="1" t="s">
         <v>81</v>
       </c>
@@ -19910,6 +20318,9 @@
       <c r="G262" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H262" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I262" s="1" t="s">
         <v>6</v>
       </c>
@@ -19972,6 +20383,9 @@
       <c r="G263" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H263" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I263" s="1" t="s">
         <v>6</v>
       </c>
@@ -20034,6 +20448,9 @@
       <c r="G264" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H264" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I264" s="1" t="s">
         <v>43</v>
       </c>
@@ -20096,6 +20513,9 @@
       <c r="G265" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="H265" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I265" s="1" t="s">
         <v>6</v>
       </c>
@@ -20158,6 +20578,9 @@
       <c r="G266" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H266" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I266" s="1" t="s">
         <v>81</v>
       </c>
@@ -20220,6 +20643,9 @@
       <c r="G267" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H267" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I267" s="1" t="s">
         <v>43</v>
       </c>
@@ -20282,6 +20708,9 @@
       <c r="G268" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H268" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I268" s="1" t="s">
         <v>6</v>
       </c>
@@ -20344,6 +20773,9 @@
       <c r="G269" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H269" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I269" s="1" t="s">
         <v>43</v>
       </c>
@@ -20406,6 +20838,9 @@
       <c r="G270" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H270" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I270" s="1" t="s">
         <v>81</v>
       </c>
@@ -20468,6 +20903,9 @@
       <c r="G271" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H271" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I271" s="1" t="s">
         <v>43</v>
       </c>
@@ -20530,6 +20968,9 @@
       <c r="G272" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H272" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I272" s="1" t="s">
         <v>81</v>
       </c>
@@ -20592,6 +21033,9 @@
       <c r="G273" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H273" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I273" s="1" t="s">
         <v>43</v>
       </c>
@@ -20654,6 +21098,9 @@
       <c r="G274" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H274" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I274" s="1" t="s">
         <v>81</v>
       </c>
@@ -20716,6 +21163,9 @@
       <c r="G275" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H275" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I275" s="1" t="s">
         <v>6</v>
       </c>
@@ -20778,6 +21228,9 @@
       <c r="G276" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H276" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I276" s="1" t="s">
         <v>6</v>
       </c>
@@ -20840,6 +21293,9 @@
       <c r="G277" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H277" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I277" s="1" t="s">
         <v>6</v>
       </c>
@@ -20902,6 +21358,9 @@
       <c r="G278" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H278" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I278" s="1" t="s">
         <v>43</v>
       </c>
@@ -20964,6 +21423,9 @@
       <c r="G279" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H279" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I279" s="1" t="s">
         <v>43</v>
       </c>
@@ -21026,6 +21488,9 @@
       <c r="G280" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H280" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I280" s="1" t="s">
         <v>6</v>
       </c>
@@ -21088,6 +21553,9 @@
       <c r="G281" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="H281" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I281" s="1" t="s">
         <v>6</v>
       </c>
@@ -21150,6 +21618,9 @@
       <c r="G282" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="H282" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I282" s="1" t="s">
         <v>6</v>
       </c>
@@ -21212,6 +21683,9 @@
       <c r="G283" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="H283" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I283" s="1" t="s">
         <v>6</v>
       </c>
@@ -21274,6 +21748,9 @@
       <c r="G284" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="H284" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I284" s="1" t="s">
         <v>6</v>
       </c>
@@ -21336,6 +21813,9 @@
       <c r="G285" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H285" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I285" s="1" t="s">
         <v>43</v>
       </c>
@@ -21398,6 +21878,9 @@
       <c r="G286" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H286" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I286" s="1" t="s">
         <v>43</v>
       </c>
@@ -21460,6 +21943,9 @@
       <c r="G287" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H287" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I287" s="1" t="s">
         <v>6</v>
       </c>
@@ -21522,6 +22008,9 @@
       <c r="G288" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="H288" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I288" s="1" t="s">
         <v>43</v>
       </c>
@@ -21584,6 +22073,9 @@
       <c r="G289" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="H289" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I289" s="1" t="s">
         <v>6</v>
       </c>
@@ -21646,6 +22138,9 @@
       <c r="G290" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H290" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I290" s="1" t="s">
         <v>6</v>
       </c>
@@ -21708,6 +22203,9 @@
       <c r="G291" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H291" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I291" s="1" t="s">
         <v>43</v>
       </c>
@@ -21770,6 +22268,9 @@
       <c r="G292" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H292" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I292" s="1" t="s">
         <v>43</v>
       </c>
@@ -21832,6 +22333,9 @@
       <c r="G293" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H293" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I293" s="1" t="s">
         <v>6</v>
       </c>
@@ -21894,6 +22398,9 @@
       <c r="G294" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H294" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I294" s="1" t="s">
         <v>43</v>
       </c>
@@ -21956,6 +22463,9 @@
       <c r="G295" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H295" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I295" s="1" t="s">
         <v>6</v>
       </c>
@@ -22018,6 +22528,9 @@
       <c r="G296" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H296" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="I296" s="1" t="s">
         <v>81</v>
       </c>
@@ -22080,6 +22593,9 @@
       <c r="G297" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H297" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="I297" s="1" t="s">
         <v>43</v>
       </c>
@@ -22142,6 +22658,9 @@
       <c r="G298" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H298" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I298" s="1" t="s">
         <v>43</v>
       </c>
@@ -22204,6 +22723,9 @@
       <c r="G299" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H299" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I299" s="1" t="s">
         <v>43</v>
       </c>
@@ -22266,6 +22788,9 @@
       <c r="G300" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H300" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I300" s="1" t="s">
         <v>6</v>
       </c>
@@ -22328,6 +22853,9 @@
       <c r="G301" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H301" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I301" s="1" t="s">
         <v>81</v>
       </c>
@@ -22390,6 +22918,9 @@
       <c r="G302" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H302" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I302" s="1" t="s">
         <v>43</v>
       </c>
@@ -22452,6 +22983,9 @@
       <c r="G303" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H303" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I303" s="1" t="s">
         <v>43</v>
       </c>
@@ -22514,6 +23048,9 @@
       <c r="G304" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H304" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I304" s="1" t="s">
         <v>81</v>
       </c>
@@ -22576,6 +23113,9 @@
       <c r="G305" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H305" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I305" s="1" t="s">
         <v>81</v>
       </c>
@@ -22638,6 +23178,9 @@
       <c r="G306" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H306" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I306" s="1" t="s">
         <v>6</v>
       </c>
@@ -22700,6 +23243,9 @@
       <c r="G307" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H307" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I307" s="1" t="s">
         <v>6</v>
       </c>
@@ -22762,6 +23308,9 @@
       <c r="G308" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H308" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I308" s="1" t="s">
         <v>43</v>
       </c>
@@ -22824,6 +23373,9 @@
       <c r="G309" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H309" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I309" s="1" t="s">
         <v>6</v>
       </c>
@@ -22886,6 +23438,9 @@
       <c r="G310" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H310" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I310" s="1" t="s">
         <v>81</v>
       </c>
@@ -22948,6 +23503,9 @@
       <c r="G311" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H311" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I311" s="1" t="s">
         <v>43</v>
       </c>
@@ -23010,6 +23568,9 @@
       <c r="G312" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H312" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I312" s="1" t="s">
         <v>6</v>
       </c>
@@ -23072,6 +23633,9 @@
       <c r="G313" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H313" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I313" s="1" t="s">
         <v>43</v>
       </c>
@@ -23134,6 +23698,9 @@
       <c r="G314" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H314" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I314" s="1" t="s">
         <v>81</v>
       </c>
@@ -23196,6 +23763,9 @@
       <c r="G315" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H315" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I315" s="1" t="s">
         <v>43</v>
       </c>
@@ -23258,6 +23828,9 @@
       <c r="G316" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H316" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I316" s="1" t="s">
         <v>81</v>
       </c>
@@ -23320,6 +23893,9 @@
       <c r="G317" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H317" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I317" s="1" t="s">
         <v>43</v>
       </c>
@@ -23382,6 +23958,9 @@
       <c r="G318" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H318" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I318" s="1" t="s">
         <v>81</v>
       </c>
@@ -23444,6 +24023,9 @@
       <c r="G319" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H319" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I319" s="1" t="s">
         <v>6</v>
       </c>
@@ -23506,6 +24088,9 @@
       <c r="G320" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H320" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I320" s="1" t="s">
         <v>6</v>
       </c>
@@ -23568,6 +24153,9 @@
       <c r="G321" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H321" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I321" s="1" t="s">
         <v>6</v>
       </c>
@@ -23630,6 +24218,9 @@
       <c r="G322" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H322" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I322" s="1" t="s">
         <v>43</v>
       </c>
@@ -23692,6 +24283,9 @@
       <c r="G323" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H323" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I323" s="1" t="s">
         <v>43</v>
       </c>
@@ -23754,6 +24348,9 @@
       <c r="G324" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H324" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I324" s="1" t="s">
         <v>6</v>
       </c>
@@ -23816,6 +24413,9 @@
       <c r="G325" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H325" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I325" s="1" t="s">
         <v>6</v>
       </c>
@@ -23878,6 +24478,9 @@
       <c r="G326" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H326" t="s">
+        <v>282</v>
+      </c>
       <c r="I326" s="1" t="s">
         <v>6</v>
       </c>
@@ -23940,6 +24543,9 @@
       <c r="G327" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H327" t="s">
+        <v>283</v>
+      </c>
       <c r="I327" s="1" t="s">
         <v>6</v>
       </c>
@@ -24002,6 +24608,9 @@
       <c r="G328" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H328" t="s">
+        <v>285</v>
+      </c>
       <c r="I328" s="1" t="s">
         <v>6</v>
       </c>
@@ -24064,6 +24673,9 @@
       <c r="G329" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H329" t="s">
+        <v>255</v>
+      </c>
       <c r="I329" s="1" t="s">
         <v>43</v>
       </c>
@@ -24126,6 +24738,9 @@
       <c r="G330" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H330" t="s">
+        <v>275</v>
+      </c>
       <c r="I330" s="1" t="s">
         <v>43</v>
       </c>
@@ -24188,6 +24803,9 @@
       <c r="G331" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H331" t="s">
+        <v>289</v>
+      </c>
       <c r="I331" s="1" t="s">
         <v>6</v>
       </c>
@@ -24250,6 +24868,9 @@
       <c r="G332" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H332" t="s">
+        <v>135</v>
+      </c>
       <c r="I332" s="1" t="s">
         <v>43</v>
       </c>
@@ -24312,6 +24933,9 @@
       <c r="G333" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H333" t="s">
+        <v>290</v>
+      </c>
       <c r="I333" s="1" t="s">
         <v>6</v>
       </c>
@@ -24374,6 +24998,9 @@
       <c r="G334" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H334" t="s">
+        <v>292</v>
+      </c>
       <c r="I334" s="1" t="s">
         <v>43</v>
       </c>
@@ -24436,6 +25063,9 @@
       <c r="G335" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H335" t="s">
+        <v>22</v>
+      </c>
       <c r="I335" s="1" t="s">
         <v>6</v>
       </c>
@@ -24498,6 +25128,9 @@
       <c r="G336" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H336" t="s">
+        <v>294</v>
+      </c>
       <c r="I336" s="1" t="s">
         <v>43</v>
       </c>
@@ -24560,6 +25193,9 @@
       <c r="G337" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="H337" t="s">
+        <v>135</v>
+      </c>
       <c r="I337" s="1" t="s">
         <v>43</v>
       </c>
@@ -24622,6 +25258,9 @@
       <c r="G338" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="H338" t="s">
+        <v>135</v>
+      </c>
       <c r="I338" s="1" t="s">
         <v>43</v>
       </c>
@@ -24684,6 +25323,9 @@
       <c r="G339" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H339" t="s">
+        <v>298</v>
+      </c>
       <c r="I339" s="1" t="s">
         <v>43</v>
       </c>
@@ -24746,6 +25388,9 @@
       <c r="G340" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H340" t="s">
+        <v>281</v>
+      </c>
       <c r="I340" s="1" t="s">
         <v>6</v>
       </c>
@@ -24808,6 +25453,9 @@
       <c r="G341" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H341" t="s">
+        <v>135</v>
+      </c>
       <c r="I341" s="1" t="s">
         <v>81</v>
       </c>
@@ -24870,6 +25518,9 @@
       <c r="G342" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H342" t="s">
+        <v>301</v>
+      </c>
       <c r="I342" s="1" t="s">
         <v>43</v>
       </c>
@@ -24932,6 +25583,9 @@
       <c r="G343" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H343" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I343" s="1" t="s">
         <v>43</v>
       </c>
@@ -24994,6 +25648,9 @@
       <c r="G344" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H344" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I344" s="1" t="s">
         <v>81</v>
       </c>
@@ -25056,6 +25713,9 @@
       <c r="G345" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H345" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I345" s="1" t="s">
         <v>81</v>
       </c>
@@ -25118,6 +25778,9 @@
       <c r="G346" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H346" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I346" s="1" t="s">
         <v>6</v>
       </c>
@@ -25180,6 +25843,9 @@
       <c r="G347" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H347" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="I347" s="1" t="s">
         <v>6</v>
       </c>
@@ -25242,6 +25908,9 @@
       <c r="G348" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H348" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I348" s="1" t="s">
         <v>43</v>
       </c>
@@ -25304,6 +25973,9 @@
       <c r="G349" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H349" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I349" s="1" t="s">
         <v>6</v>
       </c>
@@ -25366,6 +26038,9 @@
       <c r="G350" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H350" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I350" s="1" t="s">
         <v>81</v>
       </c>
@@ -25428,6 +26103,9 @@
       <c r="G351" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H351" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I351" s="1" t="s">
         <v>43</v>
       </c>
@@ -25490,6 +26168,9 @@
       <c r="G352" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H352" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I352" s="1" t="s">
         <v>6</v>
       </c>
@@ -25552,6 +26233,9 @@
       <c r="G353" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H353" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I353" s="1" t="s">
         <v>43</v>
       </c>
@@ -25614,6 +26298,9 @@
       <c r="G354" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H354" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="I354" s="1" t="s">
         <v>81</v>
       </c>
@@ -25676,6 +26363,9 @@
       <c r="G355" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H355" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="I355" s="1" t="s">
         <v>43</v>
       </c>
@@ -25738,6 +26428,9 @@
       <c r="G356" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H356" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I356" s="1" t="s">
         <v>81</v>
       </c>
@@ -25800,6 +26493,9 @@
       <c r="G357" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H357" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="I357" s="1" t="s">
         <v>43</v>
       </c>
@@ -25862,6 +26558,9 @@
       <c r="G358" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H358" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="I358" s="1" t="s">
         <v>81</v>
       </c>
@@ -25924,6 +26623,9 @@
       <c r="G359" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H359" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I359" s="1" t="s">
         <v>6</v>
       </c>
@@ -25986,6 +26688,9 @@
       <c r="G360" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H360" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="I360" s="1" t="s">
         <v>6</v>
       </c>
@@ -26048,6 +26753,9 @@
       <c r="G361" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H361" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I361" s="1" t="s">
         <v>6</v>
       </c>
@@ -26110,6 +26818,9 @@
       <c r="G362" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H362" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="I362" s="1" t="s">
         <v>43</v>
       </c>
@@ -26172,6 +26883,9 @@
       <c r="G363" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H363" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="I363" s="1" t="s">
         <v>43</v>
       </c>
@@ -26234,6 +26948,9 @@
       <c r="G364" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H364" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="I364" s="1" t="s">
         <v>6</v>
       </c>
@@ -26296,6 +27013,9 @@
       <c r="G365" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H365" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="I365" s="1" t="s">
         <v>6</v>
       </c>
@@ -26358,6 +27078,9 @@
       <c r="G366" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="H366" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I366" s="1" t="s">
         <v>6</v>
       </c>
@@ -26420,6 +27143,9 @@
       <c r="G367" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="H367" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="I367" s="1" t="s">
         <v>6</v>
       </c>
@@ -26482,6 +27208,9 @@
       <c r="G368" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H368" t="s">
+        <v>282</v>
+      </c>
       <c r="I368" s="1" t="s">
         <v>6</v>
       </c>
@@ -26544,6 +27273,9 @@
       <c r="G369" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H369" t="s">
+        <v>283</v>
+      </c>
       <c r="I369" s="1" t="s">
         <v>43</v>
       </c>
@@ -26606,6 +27338,9 @@
       <c r="G370" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="H370" t="s">
+        <v>285</v>
+      </c>
       <c r="I370" s="1" t="s">
         <v>43</v>
       </c>
@@ -26668,6 +27403,9 @@
       <c r="G371" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H371" t="s">
+        <v>255</v>
+      </c>
       <c r="I371" s="1" t="s">
         <v>6</v>
       </c>
@@ -26730,6 +27468,9 @@
       <c r="G372" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="H372" t="s">
+        <v>275</v>
+      </c>
       <c r="I372" s="1" t="s">
         <v>43</v>
       </c>
@@ -26792,6 +27533,9 @@
       <c r="G373" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H373" t="s">
+        <v>289</v>
+      </c>
       <c r="I373" s="1" t="s">
         <v>6</v>
       </c>
@@ -26854,6 +27598,9 @@
       <c r="G374" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="H374" t="s">
+        <v>255</v>
+      </c>
       <c r="I374" s="1" t="s">
         <v>43</v>
       </c>
@@ -26916,6 +27663,9 @@
       <c r="G375" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H375" t="s">
+        <v>275</v>
+      </c>
       <c r="I375" s="1" t="s">
         <v>6</v>
       </c>
@@ -26977,6 +27727,9 @@
       </c>
       <c r="G376" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="H376" t="s">
+        <v>289</v>
       </c>
       <c r="I376" s="1" t="s">
         <v>43</v>
